--- a/resources/eval/Ratings_U3.xlsx
+++ b/resources/eval/Ratings_U3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\Desktop\UMich MADS\16. June 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developments\nes\resources\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ADD245-75F9-4226-BCF9-47FBDC983B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C7E2B-F291-4DED-8389-558719762CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="5490" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Q7" sheetId="7" r:id="rId7"/>
     <sheet name="Q8" sheetId="8" r:id="rId8"/>
     <sheet name="Q9" sheetId="9" r:id="rId9"/>
-    <sheet name="Q10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="704">
   <si>
     <t>product_id</t>
   </si>
@@ -2154,258 +2153,6 @@
   </si>
   <si>
     <t>I bought this rain jacket for my friend's little girl, and I made her the happiest little sweetheart for years to come. She made it her  special raincoat so she wears it on special occasions. It fitted her great, the size I got has room for growth so she'll have her precious Frozen Jacket for a few years....then we'll buy her a new size to keep her smiling.</t>
-  </si>
-  <si>
-    <t>B00GRS3DRG</t>
-  </si>
-  <si>
-    <t>R155LWJUGTBP3E</t>
-  </si>
-  <si>
-    <t>Uhomedecor Mens Classic Winter Wind Jacket Chinese L Army Green</t>
-  </si>
-  <si>
-    <t>If your looking for a big jacket this isn't it.  This is more of a tight fit I am a small in U.S and I ordered a large and it fits good. Also the jacket is very light good for when it gets cold in Florida.  Overall very good.</t>
-  </si>
-  <si>
-    <t>Q10</t>
-  </si>
-  <si>
-    <t>Men's military style jacket, lightweight, fits asian adults</t>
-  </si>
-  <si>
-    <t>B00GRS3EOS</t>
-  </si>
-  <si>
-    <t>R17QB0MIXYXROO</t>
-  </si>
-  <si>
-    <t>Hee Grand Mens Classic Winter Wind Jacket Chinese XL Army Green</t>
-  </si>
-  <si>
-    <t>This jacket is so dope and comfortable! I wear a medium in US and ordered a XL. Love this jacket. Very nice!</t>
-  </si>
-  <si>
-    <t>B00GZGLRT6</t>
-  </si>
-  <si>
-    <t>RRWUFFLLQ8JII</t>
-  </si>
-  <si>
-    <t>Match Mens Wool Classic Pea Coat Winter Coat (US XL/CN 3XL (Fit 42"-44"), Dark gray-Thick)</t>
-  </si>
-  <si>
-    <t>Asian sizes are waaaaayyyyyy too small but I got the closest to my boyfriends size but he says when he raises his arms the sleeve are just abit short but it's pretty sturdy for cold weather</t>
-  </si>
-  <si>
-    <t>B00QS8DMQW</t>
-  </si>
-  <si>
-    <t>RTWQ0JV1VA1JG</t>
-  </si>
-  <si>
-    <t>Comfort Alley Women's Fashion Zip up Safari Anorak Military Jacket</t>
-  </si>
-  <si>
-    <t>I BOUGHT A SIZE LARGE AND I WEIGH 120 POUNDS, AND THE ARMS ARE TIGHT.</t>
-  </si>
-  <si>
-    <t>B00DOXL66W</t>
-  </si>
-  <si>
-    <t>R2R1QOLF6I3BN4</t>
-  </si>
-  <si>
-    <t>Men's Oblique Zipper Jacket Cosplay Costumes Hoodie II Coat</t>
-  </si>
-  <si>
-    <t>I bet that must of the men reviews on this product are fat and still live with their moms. This fits just perfect on me.</t>
-  </si>
-  <si>
-    <t>B009REO704</t>
-  </si>
-  <si>
-    <t>R309CD3CIVLMKE</t>
-  </si>
-  <si>
-    <t>PattyBoutik Women's Zip Front Stand Collar Military Light Jacket</t>
-  </si>
-  <si>
-    <t>I ordered this in a XL after reading reviews that this fit a little snug. I normally wear M/L. The XL fits great even over a light shirt. I love this jacket, its super cool and fits great.</t>
-  </si>
-  <si>
-    <t>B00CBELC8C</t>
-  </si>
-  <si>
-    <t>R30666GKFEIRDF</t>
-  </si>
-  <si>
-    <t>TheLees (4BS) Mens Buckle Zipper Slim Hoodie Cotton Solid Short sleeve T-shirts</t>
-  </si>
-  <si>
-    <t>Sweet jacket. I wear a large so I got an XL in Asia size and fits a little small. So deffinately 2 sizes up if you like some room in your jackets</t>
-  </si>
-  <si>
-    <t>B004B8OFCQ</t>
-  </si>
-  <si>
-    <t>RGSVIYL1PRE73</t>
-  </si>
-  <si>
-    <t>Doublju Mens Unbalanced Blazer Jacket with China Collar</t>
-  </si>
-  <si>
-    <t>Took the advice and bought a size up.Desired size - MediumBought: Asian Large US Medium.Fits great!</t>
-  </si>
-  <si>
-    <t>B00CXRN960</t>
-  </si>
-  <si>
-    <t>R3SVW70LLWZGP4</t>
-  </si>
-  <si>
-    <t>NI9NE Brand Grey Military Style Jacket Item #A882GY</t>
-  </si>
-  <si>
-    <t>This jacket is great for over a business dress or with dress pants. The fit works great for layering and is of good quality. Just make sure your size matches with the size chart and it will fit just fine. It is a nice sturdy jacket, is even a bit heavy because of the quality. Great purchase!</t>
-  </si>
-  <si>
-    <t>B00CCZT55W</t>
-  </si>
-  <si>
-    <t>R3BUILONL8VGPY</t>
-  </si>
-  <si>
-    <t>VE34 TheLees Mens premium layered style slim vest waist coat</t>
-  </si>
-  <si>
-    <t>Bought this for my husband and he loved this. He's normally a US Large so I got him XL and it fit him well.</t>
-  </si>
-  <si>
-    <t>B004B8S1JO</t>
-  </si>
-  <si>
-    <t>RC8PCAGUA4RH5</t>
-  </si>
-  <si>
-    <t>Bought this for my son, he loves the unbalanced style clothing. Fit great and the fabric is nice. We ordered the L, US m size. His chest is 37-38 and it fit perfect.</t>
-  </si>
-  <si>
-    <t>B005XZXZXG</t>
-  </si>
-  <si>
-    <t>R3CRCH0IT81ZO4</t>
-  </si>
-  <si>
-    <t>Condor Men's Summit Soft Shell Tactical Jacket</t>
-  </si>
-  <si>
-    <t>A little bulky but it still was tight enough to not cause excessive baggyness</t>
-  </si>
-  <si>
-    <t>B00HITK8AS</t>
-  </si>
-  <si>
-    <t>R3QEAXN2QSHPSY</t>
-  </si>
-  <si>
-    <t>WantDo Men's Winter Sweatershirts Jacket Coat Two Sizes Smaller W03 (US Large Slim/ Tag Asia XXXL, Black High Quality)</t>
-  </si>
-  <si>
-    <t>Very comfy. Light cheap fabric, but looks good. Hood is too small.</t>
-  </si>
-  <si>
-    <t>B00OSSHJ8G</t>
-  </si>
-  <si>
-    <t>RQ2TDMXP2OEBL</t>
-  </si>
-  <si>
-    <t>J.TOMSON Womens Trendy Military Cotton Drawstring Anorak Jacket</t>
-  </si>
-  <si>
-    <t>Nice Jacket but it small so make sure you buy larger size</t>
-  </si>
-  <si>
-    <t>B00CXRNA8M</t>
-  </si>
-  <si>
-    <t>R25UU8SKJYXUL2</t>
-  </si>
-  <si>
-    <t>This runs smaller than juniors sizing.  It was more like a little girls jacket.</t>
-  </si>
-  <si>
-    <t>R24L3BOH4G5SLK</t>
-  </si>
-  <si>
-    <t>Great jacket! A must buy! It fits true to size and is lightweight. It is trendy and so cute. One of the buttons pulled off right away, but that doesn't take away from the product for me.</t>
-  </si>
-  <si>
-    <t>R1MLSJLGX90TIB</t>
-  </si>
-  <si>
-    <t>This jacket looks amazing! If you have mild winters like I do in California, then this is the perfect fall/winter jacket. Try not to wash it too much though, the zippers and stitching are cheaply made, and will fall off if not done carefully.</t>
-  </si>
-  <si>
-    <t>B006WFP9EO</t>
-  </si>
-  <si>
-    <t>R17WB32KENO1M3</t>
-  </si>
-  <si>
-    <t>Sleek futuristic sci-fi design. I feel like I stepped out of a fashion magazine.</t>
-  </si>
-  <si>
-    <t>R2RVGVTVO79DFR</t>
-  </si>
-  <si>
-    <t>Awesome Jacket.  I am 5ft6, 140 lbs, and I got Chinese M size.  Initially I got the Chinese L, but the fit was kinda too baggy for my liking.  I returned it and got the Chinese M, which fits really nice, not too baggy, which I feel makes the look of the jacket even better.  It is quite stylish and the craftsmanship is not bad, coming from a China.  The sleeves are slim, but the waist part is a bit baggy for my liking.  Nontheless, I still like it because of how cool it looks.  For the price, you cannot get a better deal.I bought the green, and liked it so much, I also purchased one in black.</t>
-  </si>
-  <si>
-    <t>B00N2NCG7C</t>
-  </si>
-  <si>
-    <t>R15IGWLNHZNAA9</t>
-  </si>
-  <si>
-    <t>Men's 9 Pockets Work Utility Vest Military Photo Safari Travel Vest</t>
-  </si>
-  <si>
-    <t>Like the fabric on this vest bought it for my husband and the fit was perfect like that it has many pockets looks like it would be great for travel</t>
-  </si>
-  <si>
-    <t>B00H4EWJ54</t>
-  </si>
-  <si>
-    <t>R1A547JVOESC8O</t>
-  </si>
-  <si>
-    <t>Amazing jacket! Fit true to size! Matches everything! Great for fall and winter :)</t>
-  </si>
-  <si>
-    <t>B00NTKVF02</t>
-  </si>
-  <si>
-    <t>R27WPRVA8F5EJI</t>
-  </si>
-  <si>
-    <t>Ninimour- Korea Style Women's Blazer Jacket Suit Work Casual (L, white)</t>
-  </si>
-  <si>
-    <t>Jacket is not long enough for me. I would've liked for it to hit at my belt line like the picture shows rather than mid waist. Otherwise the fit is fine.</t>
-  </si>
-  <si>
-    <t>B00EE2UOUG</t>
-  </si>
-  <si>
-    <t>R2VFF3EOW2TJUW</t>
-  </si>
-  <si>
-    <t>Wantdo Men's Cotton Stand Collar Windbreaker Jacket US Medium PLUS Black</t>
-  </si>
-  <si>
-    <t>Nice coat, too small gave to nephew as a gift, would have liked it for myself.</t>
   </si>
 </sst>
 </file>
@@ -2459,7 +2206,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2478,12 +2225,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2497,7 +2238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2548,13 +2289,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2776,22 +2510,22 @@
   </sheetPr>
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="8" width="12.6640625" hidden="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="8" width="12.7109375" hidden="1"/>
     <col min="10" max="10" width="48" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2848,7 +2582,7 @@
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -2905,7 +2639,7 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -2960,7 +2694,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -3015,7 +2749,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
@@ -3070,7 +2804,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
@@ -3125,7 +2859,7 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
@@ -3180,7 +2914,7 @@
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
@@ -3235,7 +2969,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>50</v>
       </c>
@@ -3290,7 +3024,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -3345,7 +3079,7 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>58</v>
       </c>
@@ -3400,13 +3134,13 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P13" s="12">
         <f>SUM(P2:P11)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
@@ -3457,7 +3191,7 @@
       </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>38</v>
       </c>
@@ -3510,7 +3244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>63</v>
       </c>
@@ -3561,7 +3295,7 @@
       </c>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -3612,7 +3346,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
@@ -3663,7 +3397,7 @@
       </c>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>58</v>
       </c>
@@ -3714,7 +3448,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>67</v>
       </c>
@@ -3765,7 +3499,7 @@
       </c>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -3816,7 +3550,7 @@
       </c>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
@@ -3867,7 +3601,7 @@
       </c>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>71</v>
       </c>
@@ -3918,13 +3652,13 @@
       </c>
       <c r="Q26" s="8"/>
     </row>
-    <row r="28" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P28" s="12">
         <f>SUM(P17:P26)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>75</v>
       </c>
@@ -3977,7 +3711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="66" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>80</v>
       </c>
@@ -4028,7 +3762,7 @@
       </c>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:17" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>42</v>
       </c>
@@ -4079,7 +3813,7 @@
       </c>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="1:17" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>86</v>
       </c>
@@ -4130,7 +3864,7 @@
       </c>
       <c r="Q35" s="17"/>
     </row>
-    <row r="36" spans="1:17" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>63</v>
       </c>
@@ -4181,7 +3915,7 @@
       </c>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="1:17" ht="66" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>91</v>
       </c>
@@ -4232,7 +3966,7 @@
       </c>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>58</v>
       </c>
@@ -4283,7 +4017,7 @@
       </c>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>96</v>
       </c>
@@ -4334,7 +4068,7 @@
       </c>
       <c r="Q39" s="17"/>
     </row>
-    <row r="40" spans="1:17" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>38</v>
       </c>
@@ -4385,7 +4119,7 @@
       </c>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>101</v>
       </c>
@@ -4436,7 +4170,7 @@
       </c>
       <c r="Q41" s="17"/>
     </row>
-    <row r="43" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P43" s="12">
         <f>SUM(P32:P41)</f>
         <v>33</v>
@@ -4458,1652 +4192,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Q43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="8" width="12.6640625" hidden="1"/>
-    <col min="10" max="10" width="39.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="C2" s="6">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.12519825000000001</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.26132917</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0.12519824504852201</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.15245037414835599</v>
-      </c>
-      <c r="H2" s="6">
-        <v>9.5919422425498099E-2</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="6">
-        <v>1</v>
-      </c>
-      <c r="P2" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="C3" s="9">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.12469536000000001</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.2908308</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.12469536066055199</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.15585473077256701</v>
-      </c>
-      <c r="H3" s="9">
-        <v>8.8542929715792501E-2</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="9">
-        <v>1</v>
-      </c>
-      <c r="P3" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="C4" s="6">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.13475471999999999</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.2990139</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.13475471735000599</v>
-      </c>
-      <c r="G4" s="6">
-        <v>8.7756300198321799E-2</v>
-      </c>
-      <c r="H4" s="6">
-        <v>8.7756300198321799E-2</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="6">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="C5" s="9">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.13054514</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.27389616</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.130545139312744</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.116253714751472</v>
-      </c>
-      <c r="H5" s="9">
-        <v>6.8749819264184997E-2</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="9">
-        <v>1</v>
-      </c>
-      <c r="P5" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.13798112000000001</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.28140937999999999</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.137981116771698</v>
-      </c>
-      <c r="G6" s="6">
-        <v>6.5914671175142603E-2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>6.5914671175142603E-2</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>726</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>727</v>
-      </c>
-      <c r="C7" s="22">
-        <v>5</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0.13819670000000001</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0.29771310000000001</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0.13819670677185</v>
-      </c>
-      <c r="G7" s="22">
-        <v>6.4455200046806299E-2</v>
-      </c>
-      <c r="H7" s="22">
-        <v>6.4455200046806299E-2</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>728</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>729</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>708</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>709</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="22">
-        <v>1</v>
-      </c>
-      <c r="P7" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.13914770000000001</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.28446381999999998</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.139147698879241</v>
-      </c>
-      <c r="G8" s="6">
-        <v>5.80173062528875E-2</v>
-      </c>
-      <c r="H8" s="6">
-        <v>5.80173062528875E-2</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="C9" s="9">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.13535649</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.28127943999999999</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.135356485843658</v>
-      </c>
-      <c r="G9" s="9">
-        <v>8.3682531740571595E-2</v>
-      </c>
-      <c r="H9" s="9">
-        <v>5.5528498423311097E-2</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="C10" s="6">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.13994860000000001</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.31191993000000001</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.13994860649108801</v>
-      </c>
-      <c r="G10" s="6">
-        <v>5.2595433554116798E-2</v>
-      </c>
-      <c r="H10" s="6">
-        <v>5.2595433554116798E-2</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="C11" s="9">
-        <v>5</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.14022803</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.28273809999999999</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.14022803306579501</v>
-      </c>
-      <c r="G11" s="9">
-        <v>5.0703810482609898E-2</v>
-      </c>
-      <c r="H11" s="9">
-        <v>5.0703810482609898E-2</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P13" s="12">
-        <f>SUM(P2:P11)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="C17" s="6">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.12519825000000001</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.26132917</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.12519824504852201</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.15245037414835599</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.28902330029314499</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="6">
-        <v>1</v>
-      </c>
-      <c r="P17" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="C18" s="9">
-        <v>5</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.12469536000000001</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.2908308</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.12469536066055199</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0.15585473077256701</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.28469086420805401</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="9">
-        <v>1</v>
-      </c>
-      <c r="P18" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>718</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="C19" s="13">
-        <v>3</v>
-      </c>
-      <c r="D19" s="13">
-        <v>0.13054514</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.27389616</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0.130545139312744</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0.116253714751472</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0.186813767126189</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>721</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>709</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="13">
-        <v>1</v>
-      </c>
-      <c r="P19" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="11"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="C20" s="9">
-        <v>4</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.1359967</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.27969366000000001</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.13599669933319</v>
-      </c>
-      <c r="G20" s="9">
-        <v>7.9348503709203294E-2</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0.127979921680026</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>748</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0</v>
-      </c>
-      <c r="P20" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="8"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="C21" s="6">
-        <v>4</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.13529241</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0.27628225000000001</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0.13529241085052399</v>
-      </c>
-      <c r="G21" s="6">
-        <v>8.4116297696601894E-2</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0.108834602014691</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="6">
-        <v>1</v>
-      </c>
-      <c r="P21" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="C22" s="9">
-        <v>4</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0.13557369</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.27546912000000001</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.135573685169219</v>
-      </c>
-      <c r="G22" s="9">
-        <v>8.2212166025432798E-2</v>
-      </c>
-      <c r="H22" s="9">
-        <v>9.7952725563340906E-2</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="9">
-        <v>1</v>
-      </c>
-      <c r="P22" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>734</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>735</v>
-      </c>
-      <c r="C23" s="13">
-        <v>5</v>
-      </c>
-      <c r="D23" s="13">
-        <v>0.13535649</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0.28127943999999999</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0.135356485843658</v>
-      </c>
-      <c r="G23" s="13">
-        <v>8.3682531740571595E-2</v>
-      </c>
-      <c r="H23" s="13">
-        <v>9.7369764293596894E-2</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="C24" s="9">
-        <v>4</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.13475471999999999</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.2990139</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0.13475471735000599</v>
-      </c>
-      <c r="G24" s="9">
-        <v>8.7756300198321799E-2</v>
-      </c>
-      <c r="H24" s="9">
-        <v>8.7756300198321799E-2</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="9">
-        <v>1</v>
-      </c>
-      <c r="P24" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="C25" s="13">
-        <v>5</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0.13867019999999999</v>
-      </c>
-      <c r="E25" s="13">
-        <v>0.30677300000000002</v>
-      </c>
-      <c r="F25" s="13">
-        <v>0.13867020606994601</v>
-      </c>
-      <c r="G25" s="13">
-        <v>6.12497705075465E-2</v>
-      </c>
-      <c r="H25" s="13">
-        <v>8.0479523220601201E-2</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>759</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>760</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="6">
-        <v>1</v>
-      </c>
-      <c r="P25" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9">
-        <v>0.14050692000000001</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0.3195945</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0.14050692319869901</v>
-      </c>
-      <c r="G26" s="9">
-        <v>4.8815818940037302E-2</v>
-      </c>
-      <c r="H26" s="9">
-        <v>7.7624435347688606E-2</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>740</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>763</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="9">
-        <v>1</v>
-      </c>
-      <c r="P26" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="8"/>
-    </row>
-    <row r="28" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="P28" s="12">
-        <f>SUM(P17:P26)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="C32" s="6">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0.13547814</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0.30709091424941998</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1.76366046799736</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0.15786807773579101</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0.30656224163433299</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="6">
-        <v>1</v>
-      </c>
-      <c r="P32" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="1:17" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="C33" s="9">
-        <v>4</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0.12735367</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0.305616974830627</v>
-      </c>
-      <c r="F33" s="9">
-        <v>1.7633884476196899</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0.15799796500587701</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0.293419377879443</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>767</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" s="9">
-        <v>1</v>
-      </c>
-      <c r="P33" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="8"/>
-    </row>
-    <row r="34" spans="1:17" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="C34" s="6">
-        <v>5</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0.13867019999999999</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0.30677300691604598</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1.7685398123512801</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0.15553823493740801</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0.281866024133958</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O34" s="6">
-        <v>1</v>
-      </c>
-      <c r="P34" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="5"/>
-    </row>
-    <row r="35" spans="1:17" ht="66" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="C35" s="9">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9">
-        <v>0.14050692000000001</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0.30709091424941998</v>
-      </c>
-      <c r="F35" s="9">
-        <v>1.76868925227242</v>
-      </c>
-      <c r="G35" s="9">
-        <v>0.15546687872665699</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0.26129762767949999</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>740</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>763</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O35" s="9">
-        <v>1</v>
-      </c>
-      <c r="P35" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="8"/>
-    </row>
-    <row r="36" spans="1:17" ht="66" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="C36" s="6">
-        <v>5</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0.14581847000000001</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0.30261909961700401</v>
-      </c>
-      <c r="F36" s="6">
-        <v>1.79806051688458</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0.14144236551904599</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0.23899183869094801</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="6">
-        <v>1</v>
-      </c>
-      <c r="P36" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="5"/>
-    </row>
-    <row r="37" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>771</v>
-      </c>
-      <c r="C37" s="9">
-        <v>5</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0.12863933999999999</v>
-      </c>
-      <c r="E37" s="9">
-        <v>0.291053056716918</v>
-      </c>
-      <c r="F37" s="9">
-        <v>1.8465391818935299</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0.118294241436443</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0.21847085207318501</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>772</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="9">
-        <v>1</v>
-      </c>
-      <c r="P37" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="C38" s="6">
-        <v>5</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0.14388107999999999</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0.29927986860275202</v>
-      </c>
-      <c r="F38" s="6">
-        <v>1.8145581057984901</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0.13356491602301501</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0.218110412947736</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O38" s="6">
-        <v>1</v>
-      </c>
-      <c r="P38" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="5"/>
-    </row>
-    <row r="39" spans="1:17" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="C39" s="9">
-        <v>5</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0.14577209999999999</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0.30709091424941998</v>
-      </c>
-      <c r="F39" s="9">
-        <v>1.7739544285686499</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0.15295280466542799</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0.20615475114131801</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>759</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>779</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="9">
-        <v>1</v>
-      </c>
-      <c r="P39" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q39" s="8"/>
-    </row>
-    <row r="40" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="C40" s="6">
-        <v>3</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0.14593363000000001</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0.30155223608016901</v>
-      </c>
-      <c r="F40" s="6">
-        <v>1.8040211504943799</v>
-      </c>
-      <c r="G40" s="6">
-        <v>0.138596216880565</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0.20176005023208199</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O40" s="6">
-        <v>0</v>
-      </c>
-      <c r="P40" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="5"/>
-    </row>
-    <row r="41" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="C41" s="9">
-        <v>4</v>
-      </c>
-      <c r="D41" s="9">
-        <v>0.14700073</v>
-      </c>
-      <c r="E41" s="9">
-        <v>0.291782855987548</v>
-      </c>
-      <c r="F41" s="9">
-        <v>1.8606038075993601</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0.111578509867637</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0.18910062118018101</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>787</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="M41" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O41" s="9">
-        <v>1</v>
-      </c>
-      <c r="P41" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="8"/>
-    </row>
-    <row r="43" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="P43" s="12">
-        <f>SUM(P32:P41)</f>
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q2:Q11 Q17:Q26 Q32:Q41" xr:uid="{00000000-0002-0000-0900-000000000000}">
-      <formula1>"Most relevant"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N2:N11 N17:N26 N32:N41" xr:uid="{00000000-0002-0000-0900-000001000000}">
-      <formula1>"U1,U2,U3"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P2:P11 P17:P26 P32:P41" xr:uid="{00000000-0002-0000-0900-000002000000}">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O2:O11 O17:O26 O32:O41" xr:uid="{00000000-0002-0000-0900-000003000000}">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6121,14 +4210,14 @@
       <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="12.6640625" hidden="1"/>
-    <col min="10" max="10" width="34.21875" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" customWidth="1"/>
+    <col min="3" max="8" width="12.7109375" hidden="1"/>
+    <col min="10" max="10" width="34.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6181,7 +4270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>105</v>
       </c>
@@ -6232,7 +4321,7 @@
       </c>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>111</v>
       </c>
@@ -6283,7 +4372,7 @@
       </c>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>114</v>
       </c>
@@ -6334,7 +4423,7 @@
       </c>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>118</v>
       </c>
@@ -6385,7 +4474,7 @@
       </c>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
@@ -6438,7 +4527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>126</v>
       </c>
@@ -6489,7 +4578,7 @@
       </c>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>130</v>
       </c>
@@ -6540,7 +4629,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>134</v>
       </c>
@@ -6591,7 +4680,7 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>138</v>
       </c>
@@ -6642,7 +4731,7 @@
       </c>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>142</v>
       </c>
@@ -6693,13 +4782,13 @@
       </c>
       <c r="Q11" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P13" s="12">
         <f>SUM(P2:P11)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>114</v>
       </c>
@@ -6750,7 +4839,7 @@
       </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>105</v>
       </c>
@@ -6801,7 +4890,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>111</v>
       </c>
@@ -6854,7 +4943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>118</v>
       </c>
@@ -6905,7 +4994,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>130</v>
       </c>
@@ -6956,7 +5045,7 @@
       </c>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>138</v>
       </c>
@@ -7007,7 +5096,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>142</v>
       </c>
@@ -7058,7 +5147,7 @@
       </c>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>146</v>
       </c>
@@ -7109,7 +5198,7 @@
       </c>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>150</v>
       </c>
@@ -7160,7 +5249,7 @@
       </c>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>154</v>
       </c>
@@ -7211,16 +5300,16 @@
       </c>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P28" s="12">
         <f>SUM(P17:P26)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>111</v>
       </c>
@@ -7271,7 +5360,7 @@
       </c>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>105</v>
       </c>
@@ -7322,7 +5411,7 @@
       </c>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" ht="198" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="204" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>162</v>
       </c>
@@ -7373,7 +5462,7 @@
       </c>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>114</v>
       </c>
@@ -7424,7 +5513,7 @@
       </c>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>168</v>
       </c>
@@ -7475,7 +5564,7 @@
       </c>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>150</v>
       </c>
@@ -7526,7 +5615,7 @@
       </c>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>142</v>
       </c>
@@ -7577,7 +5666,7 @@
       </c>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>176</v>
       </c>
@@ -7628,7 +5717,7 @@
       </c>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>180</v>
       </c>
@@ -7679,7 +5768,7 @@
       </c>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>130</v>
       </c>
@@ -7732,7 +5821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P43" s="12">
         <f>SUM(P32:P41)</f>
         <v>31</v>
@@ -7754,6 +5843,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7771,15 +5861,15 @@
       <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="12.6640625" hidden="1"/>
-    <col min="10" max="10" width="76.109375" customWidth="1"/>
-    <col min="11" max="11" width="36.109375" customWidth="1"/>
-    <col min="12" max="12" width="21.77734375" customWidth="1"/>
+    <col min="3" max="8" width="12.7109375" hidden="1"/>
+    <col min="10" max="10" width="76.140625" customWidth="1"/>
+    <col min="11" max="11" width="36.140625" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7832,7 +5922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>184</v>
       </c>
@@ -7883,7 +5973,7 @@
       </c>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>190</v>
       </c>
@@ -7934,7 +6024,7 @@
       </c>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>194</v>
       </c>
@@ -7985,7 +6075,7 @@
       </c>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>198</v>
       </c>
@@ -8038,7 +6128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>202</v>
       </c>
@@ -8089,7 +6179,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>206</v>
       </c>
@@ -8140,7 +6230,7 @@
       </c>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>210</v>
       </c>
@@ -8191,7 +6281,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>214</v>
       </c>
@@ -8242,7 +6332,7 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>218</v>
       </c>
@@ -8293,7 +6383,7 @@
       </c>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>222</v>
       </c>
@@ -8344,13 +6434,13 @@
       </c>
       <c r="Q11" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P13" s="12">
         <f>SUM(P2:P11)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>184</v>
       </c>
@@ -8409,7 +6499,7 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>190</v>
       </c>
@@ -8468,7 +6558,7 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
     </row>
-    <row r="19" spans="1:25" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>194</v>
       </c>
@@ -8527,7 +6617,7 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>218</v>
       </c>
@@ -8586,7 +6676,7 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" spans="1:25" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>198</v>
       </c>
@@ -8647,7 +6737,7 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:25" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>222</v>
       </c>
@@ -8706,7 +6796,7 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
     </row>
-    <row r="23" spans="1:25" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>214</v>
       </c>
@@ -8757,7 +6847,7 @@
       </c>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:25" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>206</v>
       </c>
@@ -8808,7 +6898,7 @@
       </c>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:25" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>226</v>
       </c>
@@ -8859,7 +6949,7 @@
       </c>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:25" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>230</v>
       </c>
@@ -8910,13 +7000,13 @@
       </c>
       <c r="Q26" s="8"/>
     </row>
-    <row r="28" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P28" s="12">
         <f>SUM(P17:P26)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>198</v>
       </c>
@@ -8967,7 +7057,7 @@
       </c>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>194</v>
       </c>
@@ -9018,7 +7108,7 @@
       </c>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>226</v>
       </c>
@@ -9071,7 +7161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>218</v>
       </c>
@@ -9122,7 +7212,7 @@
       </c>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>240</v>
       </c>
@@ -9173,7 +7263,7 @@
       </c>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>184</v>
       </c>
@@ -9224,7 +7314,7 @@
       </c>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>246</v>
       </c>
@@ -9275,7 +7365,7 @@
       </c>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>222</v>
       </c>
@@ -9326,7 +7416,7 @@
       </c>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="153" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>250</v>
       </c>
@@ -9377,7 +7467,7 @@
       </c>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>254</v>
       </c>
@@ -9428,7 +7518,7 @@
       </c>
       <c r="Q41" s="8"/>
     </row>
-    <row r="43" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P43" s="12">
         <f>SUM(P32:P41)</f>
         <v>29</v>
@@ -9450,6 +7540,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9467,13 +7558,13 @@
       <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="12.6640625" hidden="1"/>
-    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="3" max="8" width="12.7109375" hidden="1"/>
+    <col min="10" max="10" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9526,7 +7617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>258</v>
       </c>
@@ -9577,7 +7668,7 @@
       </c>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>264</v>
       </c>
@@ -9628,7 +7719,7 @@
       </c>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>268</v>
       </c>
@@ -9681,7 +7772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>272</v>
       </c>
@@ -9732,7 +7823,7 @@
       </c>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="255" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>276</v>
       </c>
@@ -9783,7 +7874,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>280</v>
       </c>
@@ -9834,7 +7925,7 @@
       </c>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>284</v>
       </c>
@@ -9885,7 +7976,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>288</v>
       </c>
@@ -9936,7 +8027,7 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>292</v>
       </c>
@@ -9987,7 +8078,7 @@
       </c>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>296</v>
       </c>
@@ -10038,13 +8129,13 @@
       </c>
       <c r="Q11" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P13" s="12">
         <f>SUM(P2:P11)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>288</v>
       </c>
@@ -10095,7 +8186,7 @@
       </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>268</v>
       </c>
@@ -10146,7 +8237,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>284</v>
       </c>
@@ -10197,7 +8288,7 @@
       </c>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>272</v>
       </c>
@@ -10248,7 +8339,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>300</v>
       </c>
@@ -10299,7 +8390,7 @@
       </c>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>258</v>
       </c>
@@ -10350,7 +8441,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>280</v>
       </c>
@@ -10401,7 +8492,7 @@
       </c>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>303</v>
       </c>
@@ -10452,7 +8543,7 @@
       </c>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>307</v>
       </c>
@@ -10505,7 +8596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>311</v>
       </c>
@@ -10556,13 +8647,13 @@
       </c>
       <c r="Q26" s="8"/>
     </row>
-    <row r="28" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P28" s="12">
         <f>SUM(P17:P26)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>288</v>
       </c>
@@ -10613,7 +8704,7 @@
       </c>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>316</v>
       </c>
@@ -10664,7 +8755,7 @@
       </c>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>319</v>
       </c>
@@ -10717,7 +8808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>323</v>
       </c>
@@ -10768,7 +8859,7 @@
       </c>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>326</v>
       </c>
@@ -10819,7 +8910,7 @@
       </c>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>311</v>
       </c>
@@ -10870,7 +8961,7 @@
       </c>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>268</v>
       </c>
@@ -10921,7 +9012,7 @@
       </c>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>284</v>
       </c>
@@ -10972,7 +9063,7 @@
       </c>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>335</v>
       </c>
@@ -11023,7 +9114,7 @@
       </c>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>296</v>
       </c>
@@ -11074,7 +9165,7 @@
       </c>
       <c r="Q41" s="8"/>
     </row>
-    <row r="43" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P43" s="12">
         <f>SUM(P32:P41)</f>
         <v>31</v>
@@ -11096,6 +9187,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11113,13 +9205,13 @@
       <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="12.6640625" hidden="1"/>
-    <col min="10" max="10" width="30.33203125" customWidth="1"/>
+    <col min="3" max="8" width="12.7109375" hidden="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11172,7 +9264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>341</v>
       </c>
@@ -11223,7 +9315,7 @@
       </c>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>347</v>
       </c>
@@ -11276,7 +9368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>351</v>
       </c>
@@ -11327,7 +9419,7 @@
       </c>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>355</v>
       </c>
@@ -11378,7 +9470,7 @@
       </c>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>359</v>
       </c>
@@ -11429,7 +9521,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>363</v>
       </c>
@@ -11480,7 +9572,7 @@
       </c>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>367</v>
       </c>
@@ -11531,7 +9623,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>371</v>
       </c>
@@ -11582,7 +9674,7 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>375</v>
       </c>
@@ -11633,7 +9725,7 @@
       </c>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>379</v>
       </c>
@@ -11684,13 +9776,13 @@
       </c>
       <c r="Q11" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P13" s="12">
         <f>SUM(P2:P11)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>347</v>
       </c>
@@ -11741,7 +9833,7 @@
       </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>351</v>
       </c>
@@ -11792,7 +9884,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>367</v>
       </c>
@@ -11843,7 +9935,7 @@
       </c>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>363</v>
       </c>
@@ -11894,7 +9986,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>341</v>
       </c>
@@ -11945,7 +10037,7 @@
       </c>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>383</v>
       </c>
@@ -11996,7 +10088,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>375</v>
       </c>
@@ -12047,7 +10139,7 @@
       </c>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>386</v>
       </c>
@@ -12100,7 +10192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>390</v>
       </c>
@@ -12151,7 +10243,7 @@
       </c>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>355</v>
       </c>
@@ -12202,13 +10294,13 @@
       </c>
       <c r="Q26" s="8"/>
     </row>
-    <row r="28" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P28" s="12">
         <f>SUM(P17:P26)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>393</v>
       </c>
@@ -12259,7 +10351,7 @@
       </c>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>367</v>
       </c>
@@ -12310,7 +10402,7 @@
       </c>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>390</v>
       </c>
@@ -12361,7 +10453,7 @@
       </c>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>363</v>
       </c>
@@ -12412,7 +10504,7 @@
       </c>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" ht="277.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>386</v>
       </c>
@@ -12465,7 +10557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>404</v>
       </c>
@@ -12516,7 +10608,7 @@
       </c>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>383</v>
       </c>
@@ -12567,7 +10659,7 @@
       </c>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>375</v>
       </c>
@@ -12618,7 +10710,7 @@
       </c>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>411</v>
       </c>
@@ -12669,7 +10761,7 @@
       </c>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>414</v>
       </c>
@@ -12720,7 +10812,7 @@
       </c>
       <c r="Q41" s="8"/>
     </row>
-    <row r="43" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P43" s="12">
         <f>SUM(P32:P41)</f>
         <v>32</v>
@@ -12742,6 +10834,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12752,20 +10845,20 @@
   </sheetPr>
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="1" topLeftCell="K33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="12.6640625" hidden="1"/>
-    <col min="10" max="10" width="40.21875" customWidth="1"/>
+    <col min="3" max="8" width="12.7109375" hidden="1"/>
+    <col min="10" max="10" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12818,7 +10911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>417</v>
       </c>
@@ -12869,7 +10962,7 @@
       </c>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>423</v>
       </c>
@@ -12920,7 +11013,7 @@
       </c>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>427</v>
       </c>
@@ -12973,7 +11066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>431</v>
       </c>
@@ -13024,7 +11117,7 @@
       </c>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>434</v>
       </c>
@@ -13075,7 +11168,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>437</v>
       </c>
@@ -13126,7 +11219,7 @@
       </c>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>440</v>
       </c>
@@ -13177,7 +11270,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>443</v>
       </c>
@@ -13228,7 +11321,7 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>447</v>
       </c>
@@ -13279,7 +11372,7 @@
       </c>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>450</v>
       </c>
@@ -13330,13 +11423,13 @@
       </c>
       <c r="Q11" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P13" s="12">
         <f>SUM(P2:P11)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>423</v>
       </c>
@@ -13387,7 +11480,7 @@
       </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>431</v>
       </c>
@@ -13438,7 +11531,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>417</v>
       </c>
@@ -13489,7 +11582,7 @@
       </c>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>427</v>
       </c>
@@ -13542,7 +11635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>440</v>
       </c>
@@ -13593,7 +11686,7 @@
       </c>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>437</v>
       </c>
@@ -13644,7 +11737,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>447</v>
       </c>
@@ -13695,7 +11788,7 @@
       </c>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>434</v>
       </c>
@@ -13746,7 +11839,7 @@
       </c>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>443</v>
       </c>
@@ -13797,7 +11890,7 @@
       </c>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>450</v>
       </c>
@@ -13848,13 +11941,13 @@
       </c>
       <c r="Q26" s="8"/>
     </row>
-    <row r="28" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P28" s="12">
         <f>SUM(P17:P26)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>431</v>
       </c>
@@ -13905,7 +11998,7 @@
       </c>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>423</v>
       </c>
@@ -13956,7 +12049,7 @@
       </c>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>417</v>
       </c>
@@ -14007,7 +12100,7 @@
       </c>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" ht="132" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>427</v>
       </c>
@@ -14060,7 +12153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>437</v>
       </c>
@@ -14111,7 +12204,7 @@
       </c>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>464</v>
       </c>
@@ -14162,7 +12255,7 @@
       </c>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>467</v>
       </c>
@@ -14213,7 +12306,7 @@
       </c>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>434</v>
       </c>
@@ -14264,7 +12357,7 @@
       </c>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>471</v>
       </c>
@@ -14315,7 +12408,7 @@
       </c>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>475</v>
       </c>
@@ -14366,7 +12459,7 @@
       </c>
       <c r="Q41" s="8"/>
     </row>
-    <row r="43" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P43" s="12">
         <f>SUM(P32:P41)</f>
         <v>31</v>
@@ -14388,6 +12481,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14405,13 +12499,13 @@
       <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="12.6640625" hidden="1"/>
-    <col min="10" max="10" width="33.44140625" customWidth="1"/>
+    <col min="3" max="8" width="12.7109375" hidden="1"/>
+    <col min="10" max="10" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14464,7 +12558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>479</v>
       </c>
@@ -14517,7 +12611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>485</v>
       </c>
@@ -14568,7 +12662,7 @@
       </c>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>489</v>
       </c>
@@ -14619,7 +12713,7 @@
       </c>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>493</v>
       </c>
@@ -14670,7 +12764,7 @@
       </c>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>497</v>
       </c>
@@ -14721,7 +12815,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>501</v>
       </c>
@@ -14772,7 +12866,7 @@
       </c>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>505</v>
       </c>
@@ -14823,7 +12917,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>509</v>
       </c>
@@ -14874,7 +12968,7 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>513</v>
       </c>
@@ -14925,7 +13019,7 @@
       </c>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>517</v>
       </c>
@@ -14976,13 +13070,13 @@
       </c>
       <c r="Q11" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P13" s="12">
         <f>SUM(P2:P11)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>489</v>
       </c>
@@ -15033,7 +13127,7 @@
       </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>497</v>
       </c>
@@ -15084,7 +13178,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>485</v>
       </c>
@@ -15135,7 +13229,7 @@
       </c>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>493</v>
       </c>
@@ -15186,7 +13280,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>517</v>
       </c>
@@ -15237,7 +13331,7 @@
       </c>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>520</v>
       </c>
@@ -15288,7 +13382,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>513</v>
       </c>
@@ -15339,7 +13433,7 @@
       </c>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>479</v>
       </c>
@@ -15390,7 +13484,7 @@
       </c>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>523</v>
       </c>
@@ -15443,7 +13537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>527</v>
       </c>
@@ -15494,13 +13588,13 @@
       </c>
       <c r="Q26" s="8"/>
     </row>
-    <row r="28" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P28" s="12">
         <f>SUM(P17:P26)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>523</v>
       </c>
@@ -15553,7 +13647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>497</v>
       </c>
@@ -15604,7 +13698,7 @@
       </c>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>489</v>
       </c>
@@ -15655,7 +13749,7 @@
       </c>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>517</v>
       </c>
@@ -15706,7 +13800,7 @@
       </c>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>520</v>
       </c>
@@ -15757,7 +13851,7 @@
       </c>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>485</v>
       </c>
@@ -15808,7 +13902,7 @@
       </c>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>539</v>
       </c>
@@ -15859,7 +13953,7 @@
       </c>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>543</v>
       </c>
@@ -15910,7 +14004,7 @@
       </c>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>547</v>
       </c>
@@ -15961,7 +14055,7 @@
       </c>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>551</v>
       </c>
@@ -16012,7 +14106,7 @@
       </c>
       <c r="Q41" s="8"/>
     </row>
-    <row r="43" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P43" s="12">
         <f>SUM(P32:P41)</f>
         <v>31</v>
@@ -16034,6 +14128,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16051,13 +14146,13 @@
       <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="12.6640625" hidden="1"/>
-    <col min="10" max="10" width="54.33203125" customWidth="1"/>
+    <col min="3" max="8" width="12.7109375" hidden="1"/>
+    <col min="10" max="10" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16110,7 +14205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>555</v>
       </c>
@@ -16161,7 +14256,7 @@
       </c>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>561</v>
       </c>
@@ -16212,7 +14307,7 @@
       </c>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>565</v>
       </c>
@@ -16265,7 +14360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>569</v>
       </c>
@@ -16316,7 +14411,7 @@
       </c>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>573</v>
       </c>
@@ -16367,7 +14462,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>577</v>
       </c>
@@ -16418,7 +14513,7 @@
       </c>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>581</v>
       </c>
@@ -16469,7 +14564,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>585</v>
       </c>
@@ -16520,7 +14615,7 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>588</v>
       </c>
@@ -16571,7 +14666,7 @@
       </c>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>591</v>
       </c>
@@ -16622,13 +14717,13 @@
       </c>
       <c r="Q11" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P13" s="12">
         <f>SUM(P2:P11)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>565</v>
       </c>
@@ -16681,7 +14776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>588</v>
       </c>
@@ -16732,7 +14827,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>595</v>
       </c>
@@ -16783,7 +14878,7 @@
       </c>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>573</v>
       </c>
@@ -16834,7 +14929,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>569</v>
       </c>
@@ -16885,7 +14980,7 @@
       </c>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>591</v>
       </c>
@@ -16936,7 +15031,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>599</v>
       </c>
@@ -16987,7 +15082,7 @@
       </c>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>555</v>
       </c>
@@ -17038,7 +15133,7 @@
       </c>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>561</v>
       </c>
@@ -17089,7 +15184,7 @@
       </c>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>585</v>
       </c>
@@ -17140,13 +15235,13 @@
       </c>
       <c r="Q26" s="8"/>
     </row>
-    <row r="28" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P28" s="12">
         <f>SUM(P17:P26)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>602</v>
       </c>
@@ -17197,7 +15292,7 @@
       </c>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>605</v>
       </c>
@@ -17248,7 +15343,7 @@
       </c>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>565</v>
       </c>
@@ -17299,7 +15394,7 @@
       </c>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>610</v>
       </c>
@@ -17350,7 +15445,7 @@
       </c>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>588</v>
       </c>
@@ -17403,7 +15498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>616</v>
       </c>
@@ -17454,7 +15549,7 @@
       </c>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>620</v>
       </c>
@@ -17505,7 +15600,7 @@
       </c>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>623</v>
       </c>
@@ -17556,7 +15651,7 @@
       </c>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>585</v>
       </c>
@@ -17607,7 +15702,7 @@
       </c>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>629</v>
       </c>
@@ -17658,7 +15753,7 @@
       </c>
       <c r="Q41" s="8"/>
     </row>
-    <row r="43" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P43" s="12">
         <f>SUM(P32:P41)</f>
         <v>31</v>
@@ -17680,6 +15775,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17697,13 +15793,13 @@
       <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="12.6640625" hidden="1"/>
+    <col min="3" max="8" width="12.7109375" hidden="1"/>
     <col min="10" max="10" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17756,7 +15852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>632</v>
       </c>
@@ -17807,7 +15903,7 @@
       </c>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="255" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>638</v>
       </c>
@@ -17860,7 +15956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>642</v>
       </c>
@@ -17911,7 +16007,7 @@
       </c>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>646</v>
       </c>
@@ -17962,7 +16058,7 @@
       </c>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>650</v>
       </c>
@@ -18013,7 +16109,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>654</v>
       </c>
@@ -18064,7 +16160,7 @@
       </c>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>657</v>
       </c>
@@ -18115,7 +16211,7 @@
       </c>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>661</v>
       </c>
@@ -18166,7 +16262,7 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>664</v>
       </c>
@@ -18217,7 +16313,7 @@
       </c>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>667</v>
       </c>
@@ -18268,13 +16364,13 @@
       </c>
       <c r="Q11" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P13" s="12">
         <f>SUM(P2:P11)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>632</v>
       </c>
@@ -18325,7 +16421,7 @@
       </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>642</v>
       </c>
@@ -18376,7 +16472,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="255" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>638</v>
       </c>
@@ -18429,7 +16525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>664</v>
       </c>
@@ -18480,7 +16576,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>657</v>
       </c>
@@ -18531,7 +16627,7 @@
       </c>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>661</v>
       </c>
@@ -18582,7 +16678,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>654</v>
       </c>
@@ -18633,7 +16729,7 @@
       </c>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>671</v>
       </c>
@@ -18684,7 +16780,7 @@
       </c>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>674</v>
       </c>
@@ -18735,7 +16831,7 @@
       </c>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>678</v>
       </c>
@@ -18786,13 +16882,13 @@
       </c>
       <c r="Q26" s="8"/>
     </row>
-    <row r="28" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P28" s="12">
         <f>SUM(P17:P26)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="264" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="255" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>638</v>
       </c>
@@ -18845,7 +16941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>664</v>
       </c>
@@ -18896,7 +16992,7 @@
       </c>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>657</v>
       </c>
@@ -18947,7 +17043,7 @@
       </c>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>674</v>
       </c>
@@ -18998,7 +17094,7 @@
       </c>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>687</v>
       </c>
@@ -19049,7 +17145,7 @@
       </c>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>691</v>
       </c>
@@ -19100,7 +17196,7 @@
       </c>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>475</v>
       </c>
@@ -19151,7 +17247,7 @@
       </c>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>654</v>
       </c>
@@ -19202,7 +17298,7 @@
       </c>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>698</v>
       </c>
@@ -19253,7 +17349,7 @@
       </c>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>642</v>
       </c>
@@ -19304,7 +17400,7 @@
       </c>
       <c r="Q41" s="8"/>
     </row>
-    <row r="43" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="P43" s="12">
         <f>SUM(P32:P41)</f>
         <v>28</v>
@@ -19326,5 +17422,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>